--- a/pos.xlsx
+++ b/pos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutaka/src/socket_server_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5AB286EE-4141-1445-B70C-73AD1F1194B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD925CE-5C40-0845-BB7B-4095C2254F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1860" windowWidth="50120" windowHeight="28300"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="50120" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>X</t>
     <phoneticPr fontId="18"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1686,16 +1686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2019,11 +2019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B29" sqref="B29:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2136,19 +2136,19 @@
         <v>-44</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F20" si="0">C6-C5</f>
+        <f>C6-C5</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H20" si="1">SQRT(E5^2+F5^2)</f>
+        <f t="shared" ref="H5:H20" si="0">SQRT(E5^2+F5^2)</f>
         <v>44.011362169330773</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I20" si="2">E5/$H5</f>
+        <f t="shared" ref="I5:I20" si="1">E5/$H5</f>
         <v>-0.99974183554494278</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J20" si="3">F5/$H5</f>
+        <f t="shared" ref="J5:J20" si="2">F5/$H5</f>
         <v>2.2721405353294154E-2</v>
       </c>
     </row>
@@ -2163,23 +2163,23 @@
         <v>121.5</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E20" si="4">B7-B6</f>
+        <f t="shared" ref="E6:E20" si="3">B7-B6</f>
         <v>-120.5</v>
       </c>
       <c r="F6">
+        <f>C7-C6</f>
+        <v>58.5</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>58.5</v>
-      </c>
-      <c r="H6">
+        <v>133.94961739400378</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>133.94961739400378</v>
-      </c>
-      <c r="I6">
+        <v>-0.89959196856499679</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="2"/>
-        <v>-0.89959196856499679</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
         <v>0.43673137063113954</v>
       </c>
     </row>
@@ -2194,23 +2194,23 @@
         <v>180</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-125</v>
       </c>
       <c r="F7">
+        <f>C8-C7</f>
+        <v>40.5</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>40.5</v>
-      </c>
-      <c r="H7">
+        <v>131.39729829794828</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>131.39729829794828</v>
-      </c>
-      <c r="I7">
+        <v>-0.95131331936945784</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>-0.95131331936945784</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
         <v>0.30822551547570437</v>
       </c>
     </row>
@@ -2225,23 +2225,23 @@
         <v>220.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-60.91</v>
       </c>
       <c r="F8">
+        <f>C9-C8</f>
+        <v>98.20999999999998</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>98.20999999999998</v>
-      </c>
-      <c r="H8">
+        <v>115.56483980865458</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>115.56483980865458</v>
-      </c>
-      <c r="I8">
+        <v>-0.52706342258468208</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="2"/>
-        <v>-0.52706342258468208</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
         <v>0.84982595192975896</v>
       </c>
     </row>
@@ -2256,23 +2256,23 @@
         <v>318.70999999999998</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-52.59</v>
       </c>
       <c r="F9">
+        <f>C10-C9</f>
+        <v>144.29000000000002</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>144.29000000000002</v>
-      </c>
-      <c r="H9">
+        <v>153.57510279990049</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>153.57510279990049</v>
-      </c>
-      <c r="I9">
+        <v>-0.34243831871968039</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>-0.34243831871968039</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
         <v>0.93954031199967081</v>
       </c>
     </row>
@@ -2287,23 +2287,23 @@
         <v>463</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-28</v>
       </c>
       <c r="F10">
+        <f>C11-C10</f>
+        <v>68.5</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>68.5</v>
-      </c>
-      <c r="H10">
+        <v>74.001689169910165</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>74.001689169910165</v>
-      </c>
-      <c r="I10">
+        <v>-0.37836974147591595</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="2"/>
-        <v>-0.37836974147591595</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
         <v>0.92565454611072295</v>
       </c>
     </row>
@@ -2318,23 +2318,23 @@
         <v>531.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-18.5</v>
       </c>
       <c r="F11">
+        <f>C12-C11</f>
+        <v>74.5</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>74.5</v>
-      </c>
-      <c r="H11">
+        <v>76.762621112101172</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>76.762621112101172</v>
-      </c>
-      <c r="I11">
+        <v>-0.24100271371639737</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="2"/>
-        <v>-0.24100271371639737</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
         <v>0.9705244417227894</v>
       </c>
     </row>
@@ -2349,23 +2349,23 @@
         <v>606</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F12">
+        <f>C13-C12</f>
+        <v>78</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="H12">
+        <v>78.230428862431779</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>78.230428862431779</v>
-      </c>
-      <c r="I12">
+        <v>7.6696498884737049E-2</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="2"/>
-        <v>7.6696498884737049E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
         <v>0.9970544855015816</v>
       </c>
     </row>
@@ -2380,23 +2380,23 @@
         <v>684</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="F13">
+        <f>C14-C13</f>
+        <v>120</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="H13">
+        <v>122.18428704215611</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>122.18428704215611</v>
-      </c>
-      <c r="I13">
+        <v>0.1882402439526821</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.1882402439526821</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
         <v>0.98212301192703699</v>
       </c>
     </row>
@@ -2411,23 +2411,23 @@
         <v>804</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
       <c r="F14">
+        <f>C15-C14</f>
+        <v>87.5</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="H14">
+        <v>102.04165815979276</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="1"/>
-        <v>102.04165815979276</v>
-      </c>
-      <c r="I14">
+        <v>0.51449575542752646</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.51449575542752646</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
         <v>0.85749292571254421</v>
       </c>
     </row>
@@ -2442,23 +2442,23 @@
         <v>891.5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>47.519999999999982</v>
       </c>
       <c r="F15">
+        <f>C16-C15</f>
+        <v>65.519999999999982</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>65.519999999999982</v>
-      </c>
-      <c r="H15">
+        <v>80.938376558959945</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="1"/>
-        <v>80.938376558959945</v>
-      </c>
-      <c r="I15">
+        <v>0.58711333263997223</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="2"/>
-        <v>0.58711333263997223</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
         <v>0.80950474651874971</v>
       </c>
     </row>
@@ -2473,23 +2473,23 @@
         <v>957.02</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.480000000000018</v>
       </c>
       <c r="F16">
+        <f>C17-C16</f>
+        <v>62.480000000000018</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>62.480000000000018</v>
-      </c>
-      <c r="H16">
+        <v>91.963584097184935</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>91.963584097184935</v>
-      </c>
-      <c r="I16">
+        <v>0.73376870488963064</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="2"/>
-        <v>0.73376870488963064</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
         <v>0.67939935805429941</v>
       </c>
     </row>
@@ -2504,23 +2504,23 @@
         <v>1019.5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66.54000000000002</v>
       </c>
       <c r="F17">
+        <f>C18-C17</f>
+        <v>47.529999999999973</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>47.529999999999973</v>
-      </c>
-      <c r="H17">
+        <v>81.772076529827714</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
-        <v>81.772076529827714</v>
-      </c>
-      <c r="I17">
+        <v>0.81372520821002337</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="2"/>
-        <v>0.81372520821002337</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
         <v>0.58124976174064291</v>
       </c>
     </row>
@@ -2535,23 +2535,23 @@
         <v>1067.03</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>92.909999999999968</v>
       </c>
       <c r="F18">
+        <f>C19-C18</f>
+        <v>52.950000000000045</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
-        <v>52.950000000000045</v>
-      </c>
-      <c r="H18">
+        <v>106.93909762102913</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="1"/>
-        <v>106.93909762102913</v>
-      </c>
-      <c r="I18">
+        <v>0.86881226854236704</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="2"/>
-        <v>0.86881226854236704</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
         <v>0.49514163835236669</v>
       </c>
     </row>
@@ -2566,23 +2566,23 @@
         <v>1119.98</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100.05000000000001</v>
       </c>
       <c r="F19">
+        <f>C20-C19</f>
+        <v>35.519999999999982</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v>35.519999999999982</v>
-      </c>
-      <c r="H19">
+        <v>106.16813505002337</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="1"/>
-        <v>106.16813505002337</v>
-      </c>
-      <c r="I19">
+        <v>0.94237315134959598</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="2"/>
-        <v>0.94237315134959598</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
         <v>0.33456366152861194</v>
       </c>
     </row>
@@ -2597,23 +2597,23 @@
         <v>1155.5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F20">
+        <f>C21-C20</f>
+        <v>4.5</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="H20">
+        <v>12.816005617976296</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="1"/>
-        <v>12.816005617976296</v>
-      </c>
-      <c r="I20">
+        <v>0.93632917756904455</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="2"/>
-        <v>0.93632917756904455</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
         <v>0.3511234415883917</v>
       </c>
     </row>
@@ -2626,6 +2626,391 @@
       </c>
       <c r="C21">
         <v>1160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29">
+        <v>605</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30">
+        <v>605</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <f>B30-B29</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>C30-C29</f>
+        <v>120</v>
+      </c>
+      <c r="H30">
+        <f>SQRT(E30^2+F30^2)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31">
+        <v>605.5</v>
+      </c>
+      <c r="C31">
+        <v>120.5</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E47" si="4">B31-B30</f>
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F47" si="5">C31-C30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H47" si="6">SQRT(E31^2+F31^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32">
+        <v>561.5</v>
+      </c>
+      <c r="C32">
+        <v>121.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>-44</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>44.011362169330773</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <v>441</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>-120.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>58.5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>133.94961739400378</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <v>316</v>
+      </c>
+      <c r="C34">
+        <v>220.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>-125</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>40.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>131.39729829794828</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35">
+        <v>255.09</v>
+      </c>
+      <c r="C35">
+        <v>318.70999999999998</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>-60.91</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>98.20999999999998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>115.56483980865458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <v>202.5</v>
+      </c>
+      <c r="C36">
+        <v>463</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>-52.59</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>144.29000000000002</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>153.57510279990049</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>174.5</v>
+      </c>
+      <c r="C37">
+        <v>531.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>-28</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>74.001689169910165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>156</v>
+      </c>
+      <c r="C38">
+        <v>606</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>-18.5</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>74.5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>76.762621112101172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <v>162</v>
+      </c>
+      <c r="C39">
+        <v>684</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>78.230428862431779</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40">
+        <v>185</v>
+      </c>
+      <c r="C40">
+        <v>804</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>122.18428704215611</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41">
+        <v>237.5</v>
+      </c>
+      <c r="C41">
+        <v>891.5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>52.5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>102.04165815979276</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42">
+        <v>285.02</v>
+      </c>
+      <c r="C42">
+        <v>957.02</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>47.519999999999982</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>65.519999999999982</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>80.938376558959945</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43">
+        <v>352.5</v>
+      </c>
+      <c r="C43">
+        <v>1019.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>67.480000000000018</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>62.480000000000018</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>91.963584097184935</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44">
+        <v>419.04</v>
+      </c>
+      <c r="C44">
+        <v>1067.03</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>66.54000000000002</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>47.529999999999973</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>81.772076529827714</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45">
+        <v>511.95</v>
+      </c>
+      <c r="C45">
+        <v>1119.98</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>92.909999999999968</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>52.950000000000045</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>106.93909762102913</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46">
+        <v>612</v>
+      </c>
+      <c r="C46">
+        <v>1155.5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>100.05000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>35.519999999999982</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>106.16813505002337</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47">
+        <v>624</v>
+      </c>
+      <c r="C47">
+        <v>1160</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>12.816005617976296</v>
       </c>
     </row>
   </sheetData>
